--- a/AutomationFrameWork/resource/web-data.xlsx
+++ b/AutomationFrameWork/resource/web-data.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
-    <sheet name="ppt" sheetId="4" r:id="rId2"/>
-    <sheet name="recordings" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -21,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>USERNAME</t>
   </si>
@@ -29,34 +27,10 @@
     <t>PASSWORD</t>
   </si>
   <si>
-    <t>PPT-NAME</t>
+    <t>susan@gmail.co</t>
   </si>
   <si>
-    <t>PPT-PWD</t>
-  </si>
-  <si>
-    <t>whiteboxqa</t>
-  </si>
-  <si>
-    <t>SDLC - General</t>
-  </si>
-  <si>
-    <t>2015-09</t>
-  </si>
-  <si>
-    <t>QA_2015-10-02_Reena_SQL Class(Sets,DML)</t>
-  </si>
-  <si>
-    <t>BATCH</t>
-  </si>
-  <si>
-    <t>RECORDING</t>
-  </si>
-  <si>
-    <t>raghava2706@gmail.com</t>
-  </si>
-  <si>
-    <t>training</t>
+    <t>temp123</t>
   </si>
 </sst>
 </file>
@@ -377,7 +351,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -388,7 +362,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,102 +381,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
